--- a/ModelExc.xlsx
+++ b/ModelExc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_tap\WebGIS\B1-Nhóm3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFA426B-94F4-4567-93EA-610F245A43D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BC4A21-3057-4C53-B5A0-1ADEAFE7EF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD484B77-F534-4986-82CB-8DB84E246F34}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>tblUser</t>
   </si>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -690,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3661957-18E5-4C61-845D-D2109A9271D3}">
-  <dimension ref="B1:N21"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -904,7 +905,6 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -927,8 +927,8 @@
       <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
+      <c r="H12" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>28</v>
@@ -949,7 +949,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="8"/>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="3"/>
@@ -968,7 +968,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="8"/>
       <c r="H14" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>28</v>
@@ -991,7 +991,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="8"/>
       <c r="H15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="3"/>
@@ -1010,7 +1010,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="8"/>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="3"/>
@@ -1027,7 +1027,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="8"/>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="3"/>
@@ -1044,7 +1044,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="8"/>
       <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="3"/>
@@ -1061,7 +1061,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="8"/>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="3"/>
@@ -1076,31 +1076,48 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="11"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ModelExc.xlsx
+++ b/ModelExc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_tap\WebGIS\B1-Nhóm3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BC4A21-3057-4C53-B5A0-1ADEAFE7EF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C070032A-E78C-4895-9274-1E27CF70F218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD484B77-F534-4986-82CB-8DB84E246F34}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>tblUser</t>
   </si>
@@ -55,9 +55,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>teacher</t>
-  </si>
-  <si>
     <t>student</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>score_A</t>
   </si>
   <si>
-    <t>GPA</t>
-  </si>
-  <si>
     <t>summation_points</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
   </si>
   <si>
     <t>semester</t>
-  </si>
-  <si>
-    <t>cumulative_credit_number</t>
   </si>
   <si>
     <t>user_code</t>
@@ -147,13 +138,37 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -355,14 +370,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -377,6 +391,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -694,182 +718,178 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
+      <c r="D3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>27</v>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="16"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="3" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="3" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="16"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="22" t="s">
         <v>28</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="16"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -881,10 +901,10 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -896,10 +916,10 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -910,214 +930,195 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="16"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B12" s="14"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="3" t="s">
+      <c r="I13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="3" t="s">
+      <c r="M14" s="8"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="3" t="s">
+      <c r="M15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="16"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="I17" s="8"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="16"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="I18" s="8"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="16"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="I19" s="8"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="16"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="16"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="11"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="16"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ModelExc.xlsx
+++ b/ModelExc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_tap\WebGIS\B1-Nhóm3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C070032A-E78C-4895-9274-1E27CF70F218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD405A2A-7188-4DB1-9580-D9C71B609334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD484B77-F534-4986-82CB-8DB84E246F34}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>tblUser</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>semester</t>
-  </si>
-  <si>
-    <t>user_code</t>
   </si>
 </sst>
 </file>
@@ -370,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -393,7 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -718,7 +714,7 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -765,7 +761,7 @@
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -775,7 +771,7 @@
       <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
@@ -876,15 +872,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="29"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="10"/>
       <c r="N8" s="15"/>
     </row>
@@ -946,7 +938,7 @@
       <c r="K12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="26" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -958,7 +950,7 @@
       <c r="B13" s="14"/>
       <c r="F13" s="3"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -992,7 +984,7 @@
       <c r="B15" s="14"/>
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -1000,7 +992,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="25" t="s">
         <v>19</v>
       </c>
       <c r="M15" s="8" t="s">

--- a/ModelExc.xlsx
+++ b/ModelExc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc_tap\WebGIS\B1-Nhóm3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD405A2A-7188-4DB1-9580-D9C71B609334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C932369-0171-44DF-9458-5DA8E0907649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD484B77-F534-4986-82CB-8DB84E246F34}"/>
   </bookViews>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>tblUser</t>
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>code</t>
   </si>
   <si>
     <t>password</t>
@@ -714,7 +711,7 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -755,27 +752,27 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="15"/>
     </row>
@@ -783,19 +780,19 @@
       <c r="B4" s="14"/>
       <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
       <c r="G4" s="7"/>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="3"/>
       <c r="K4" s="7"/>
       <c r="L4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="15"/>
@@ -804,19 +801,19 @@
       <c r="B5" s="14"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3"/>
       <c r="G5" s="7"/>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="3"/>
       <c r="K5" s="7"/>
       <c r="L5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="15"/>
@@ -825,21 +822,18 @@
       <c r="B6" s="14"/>
       <c r="C6" s="7"/>
       <c r="D6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="7"/>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="3"/>
       <c r="K6" s="7"/>
       <c r="L6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="15"/>
@@ -847,18 +841,22 @@
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7"/>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="7"/>
       <c r="L7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="15"/>
@@ -868,7 +866,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
@@ -928,7 +926,7 @@
       <c r="B12" s="14"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>1</v>
@@ -936,13 +934,13 @@
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
       <c r="K12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="26" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" s="15"/>
     </row>
@@ -951,15 +949,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="7"/>
       <c r="H13" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="7"/>
       <c r="L13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="15"/>
@@ -969,13 +967,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
       <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="3"/>
       <c r="K14" s="7"/>
       <c r="L14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="15"/>
@@ -985,18 +983,18 @@
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
       <c r="H15" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="7"/>
       <c r="L15" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="15"/>
     </row>
@@ -1005,13 +1003,13 @@
       <c r="F16" s="3"/>
       <c r="G16" s="7"/>
       <c r="H16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
       <c r="L16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="15"/>
@@ -1024,7 +1022,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="3"/>
@@ -1041,7 +1039,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="7"/>
       <c r="H18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="3"/>
@@ -1058,7 +1056,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="7"/>
       <c r="H19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="3"/>
